--- a/DroolsSample/src/main/resources/dtables/Sample.xlsx
+++ b/DroolsSample/src/main/resources/dtables/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\Drools_sample_rulebase\DroolsSample\src\main\resources\dtables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyota\git\repository\DroolsSample\src\main\resources\dtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64E8CD-97ED-4577-8A63-DC64B014F4D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586CF068-AC7F-448B-BD00-0670003A00A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,18 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!$F$11:$F$12</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -860,7 +871,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1085,7 +1096,8 @@
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="38">
-        <v>19</v>
+        <f>Lists!C5</f>
+        <v>21</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="36" t="s">
@@ -1168,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:A7"/>
+  <dimension ref="A4:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,22 +1193,25 @@
     <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <v>20</v>
       </c>
@@ -1204,7 +1219,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>